--- a/DDAf_2022_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -130,7 +130,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -172,13 +172,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -196,7 +196,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -268,7 +268,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -280,7 +280,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -382,7 +382,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -400,7 +400,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -418,7 +418,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="178">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
   <si>
     <t>Tableau 10 : Ventilation sectorielle de l'économie</t>
   </si>
@@ -1317,11 +1314,9 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1339,60 +1334,60 @@
     </row>
     <row r="2" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="12">
         <v>25.0903030417286</v>
@@ -1439,10 +1434,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="15">
         <v>0</v>
@@ -1489,10 +1484,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="19">
         <v>0</v>
@@ -1539,10 +1534,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="19">
         <v>0</v>
@@ -1589,10 +1584,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -1639,10 +1634,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="C8" s="19">
         <v>0.14873620206801999</v>
@@ -1689,10 +1684,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="C9" s="19">
         <v>0</v>
@@ -1739,10 +1734,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="19">
         <v>4.4740084191000002E-3</v>
@@ -1789,10 +1784,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="15">
         <v>0</v>
@@ -1839,10 +1834,10 @@
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="22">
         <v>0</v>
@@ -1889,10 +1884,10 @@
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="26">
         <v>4.2467176578698398</v>
@@ -1939,10 +1934,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="19">
         <v>0</v>
@@ -1989,10 +1984,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="19">
         <v>2.80179480883054</v>
@@ -2039,10 +2034,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C16" s="19">
         <v>0</v>
@@ -2089,10 +2084,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="C17" s="12">
         <v>17.786699997359399</v>
@@ -2139,10 +2134,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="C18" s="12">
         <v>43.449576811241798</v>
@@ -2189,10 +2184,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="C19" s="15">
         <v>0.74870783289039999</v>
@@ -2239,10 +2234,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="C20" s="12">
         <v>22.2649239155296</v>
@@ -2289,10 +2284,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>55</v>
       </c>
       <c r="C21" s="12">
         <v>18.801320629744001</v>
@@ -2339,10 +2334,10 @@
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -2389,10 +2384,10 @@
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="26">
         <v>9.2753485186298192</v>
@@ -2439,10 +2434,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
@@ -2489,10 +2484,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="C25" s="19">
         <v>0</v>
@@ -2539,19 +2534,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="19">
         <v>17.280053992951299</v>
@@ -2589,10 +2584,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C27" s="19">
         <v>0</v>
@@ -2639,10 +2634,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="C28" s="19">
         <v>2.2073329289950001E-2</v>
@@ -2689,10 +2684,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C29" s="19">
         <v>0.12480900692159</v>
@@ -2739,10 +2734,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C30" s="19">
         <v>0</v>
@@ -2789,10 +2784,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="C31" s="19">
         <v>0</v>
@@ -2839,10 +2834,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C32" s="19">
         <v>0</v>
@@ -2875,33 +2870,33 @@
         <v>7.22269907055448</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="19">
         <v>60.181756464297401</v>
@@ -2939,19 +2934,19 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="C34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="15">
         <v>3.29339629515859</v>
@@ -2989,10 +2984,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="C35" s="19">
         <v>3.5980944144434299</v>
@@ -3039,10 +3034,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="C36" s="19">
         <v>0</v>
@@ -3089,10 +3084,10 @@
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="C37" s="19">
         <v>0</v>
@@ -3139,10 +3134,10 @@
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="26">
         <v>0.63298986704244997</v>
@@ -3189,10 +3184,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="C39" s="12">
         <v>14.3947588904912</v>
@@ -3239,10 +3234,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C40" s="19">
         <v>4.0186789704352899</v>
@@ -3289,10 +3284,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="C41" s="12">
         <v>43.8882633204272</v>
@@ -3339,10 +3334,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>95</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>96</v>
       </c>
       <c r="C42" s="12">
         <v>0</v>
@@ -3389,10 +3384,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="C43" s="19">
         <v>2.6148443245599998E-3</v>
@@ -3439,10 +3434,10 @@
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C44" s="19">
         <v>1.7099482709178599</v>
@@ -3489,10 +3484,10 @@
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="26">
         <v>7.3432445630079597</v>
@@ -3539,10 +3534,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C46" s="19">
         <v>0.11614349514166999</v>
@@ -3589,10 +3584,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C47" s="19">
         <v>0</v>
@@ -3639,10 +3634,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C48" s="19">
         <v>0</v>
@@ -3689,10 +3684,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C49" s="19">
         <v>1.0475005420051</v>
@@ -3739,10 +3734,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C50" s="19">
         <v>0</v>
@@ -3789,10 +3784,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="C51" s="15">
         <v>4.6960877241955901</v>
@@ -3839,10 +3834,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C52" s="19">
         <v>0</v>
@@ -3889,10 +3884,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C53" s="19">
         <v>0</v>
@@ -3939,10 +3934,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="C54" s="19">
         <v>0</v>
@@ -3989,10 +3984,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C55" s="19">
         <v>0</v>
@@ -4039,10 +4034,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C56" s="19">
         <v>1.3395153888383</v>
@@ -4089,10 +4084,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>125</v>
       </c>
       <c r="C57" s="12">
         <v>7.4000447437456298</v>
@@ -4139,10 +4134,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="C58" s="19">
         <v>0</v>
@@ -4189,10 +4184,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="C59" s="19">
         <v>0</v>
@@ -4239,10 +4234,10 @@
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="C60" s="15">
         <v>0</v>
@@ -4290,7 +4285,7 @@
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" s="26">
         <v>5.2821499421673304</v>
@@ -4338,7 +4333,7 @@
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="32">
         <v>5.2283935393359604</v>
@@ -4386,7 +4381,7 @@
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" s="32">
         <v>1.5387803594409399</v>
@@ -4434,7 +4429,7 @@
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="36">
         <v>1.77367826347372</v>
@@ -4482,7 +4477,7 @@
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="39">
         <v>0.89580578340021999</v>
@@ -4530,7 +4525,7 @@
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="42">
         <v>1.72656827975828</v>
@@ -4578,7 +4573,7 @@
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="39">
         <v>3.8673381647484599</v>
@@ -4626,7 +4621,7 @@
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="39">
         <v>5.2882480152262499</v>
@@ -4674,7 +4669,7 @@
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="39">
         <v>9.8139457432700004E-3</v>
@@ -4722,7 +4717,7 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="39">
         <v>14.9307699161428</v>
@@ -4770,7 +4765,7 @@
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="39">
         <v>5.2821499421673304</v>
@@ -4818,7 +4813,7 @@
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" s="39">
         <v>0.83848664749317003</v>
@@ -4866,7 +4861,7 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="39">
         <v>3.4186191644144301</v>
@@ -4914,7 +4909,7 @@
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="39">
         <v>11.2045598497245</v>
@@ -4962,7 +4957,7 @@
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" s="42">
         <v>20.650971697924302</v>
@@ -5010,7 +5005,7 @@
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="39">
         <v>0.90717373318757999</v>
@@ -5058,7 +5053,7 @@
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="39">
         <v>1.9818695854902499</v>
@@ -5106,7 +5101,7 @@
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" s="39">
         <v>4.0130085409470002E-2</v>
@@ -5154,7 +5149,7 @@
     <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="42">
         <v>0.36292800948456999</v>
@@ -5202,7 +5197,7 @@
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="39">
         <v>13.6002630072404</v>
@@ -5250,7 +5245,7 @@
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="39">
         <v>15.531686683923599</v>
@@ -5298,7 +5293,7 @@
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="39">
         <v>1.5532279151147601</v>
@@ -5346,7 +5341,7 @@
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="42">
         <v>0.45783803774927001</v>
@@ -5394,7 +5389,7 @@
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="39">
         <v>1.2081941353953001</v>
@@ -5442,7 +5437,7 @@
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="39">
         <v>2.3327950152827102</v>
@@ -5490,7 +5485,7 @@
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="39">
         <v>6.2104355720217397</v>
@@ -5538,7 +5533,7 @@
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="39">
         <v>0.49895320923820002</v>
@@ -5586,7 +5581,7 @@
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="39">
         <v>4.9980592695975199</v>
@@ -5634,7 +5629,7 @@
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="39">
         <v>2.2046570874736702</v>
@@ -5682,7 +5677,7 @@
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C90" s="42">
         <v>1.3799127961489801</v>
@@ -5730,7 +5725,7 @@
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" s="39">
         <v>4.1820868309110901</v>
@@ -5778,7 +5773,7 @@
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="39">
         <v>0.30660993752156002</v>
@@ -5826,7 +5821,7 @@
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" s="39">
         <v>0</v>
@@ -5874,7 +5869,7 @@
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" s="39">
         <v>0.47010243596631002</v>
@@ -5922,7 +5917,7 @@
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="39">
         <v>0.68095690557887001</v>
@@ -5970,7 +5965,7 @@
     <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96" s="42">
         <v>6.8562740893626799</v>
@@ -6018,7 +6013,7 @@
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="39">
         <v>6.4999533688117301</v>
@@ -6066,7 +6061,7 @@
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="39">
         <v>5.9222000351960302</v>
@@ -6114,7 +6109,7 @@
     <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="42">
         <v>21.077551688809301</v>
@@ -6179,7 +6174,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -6199,7 +6194,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -6219,7 +6214,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -6239,7 +6234,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -6259,7 +6254,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -6313,7 +6308,7 @@
     </row>
     <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -6349,7 +6344,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -6368,7 +6363,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -6404,7 +6399,7 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -6423,7 +6418,7 @@
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -6459,7 +6454,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="178">
   <si>
     <t>Tableau 10 : Ventilation sectorielle de l'économie</t>
   </si>
@@ -508,19 +508,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -535,7 +538,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Organisation internationale du travail (récupéré le 25/10/2020), Division des statistiques des Nations Unies, Comptes nationaux (analyse des principaux agrégats, jeu de données téléchargé en décembre 2020), Indicateurs du développement dans le monde de la Banque mondiale (base de données et données communiquées par les banques centrales, les agences nationales de statistique, et bureaux de pays de la Banque mondiale -01/04/2021).</t>
@@ -5776,46 +5779,46 @@
         <v>160</v>
       </c>
       <c r="C92" s="39">
-        <v>0.30660993752156002</v>
+        <v>0.30677440591209998</v>
       </c>
       <c r="D92" s="39">
-        <v>0.14053656264924999</v>
+        <v>0.14061194775404001</v>
       </c>
       <c r="E92" s="40">
-        <v>1.6539889756947099</v>
+        <v>1.65460813040528</v>
       </c>
       <c r="F92" s="39">
-        <v>17.166097420641901</v>
+        <v>17.156271763174999</v>
       </c>
       <c r="G92" s="39">
-        <v>22.230946603410899</v>
+        <v>22.260286893258201</v>
       </c>
       <c r="H92" s="39">
-        <v>8.1548705455258403</v>
+        <v>8.1587489000202194</v>
       </c>
       <c r="I92" s="39">
-        <v>15.868201959670699</v>
+        <v>15.853344299466601</v>
       </c>
       <c r="J92" s="39">
-        <v>9.8567169466032691</v>
+        <v>9.8572606560882505</v>
       </c>
       <c r="K92" s="40">
-        <v>26.72316652408</v>
+        <v>26.714087487922502</v>
       </c>
       <c r="L92" s="40">
-        <v>17.888928509535301</v>
+        <v>17.914222465437799</v>
       </c>
       <c r="M92" s="39">
-        <v>44.635091328133903</v>
+        <v>43.530725446164503</v>
       </c>
       <c r="N92" s="39">
-        <v>15.188204419315101</v>
+        <v>15.2891659455079</v>
       </c>
       <c r="O92" s="40">
-        <v>40.1767291881673</v>
+        <v>41.180135810818001</v>
       </c>
       <c r="P92" s="40">
-        <v>7.8099178569786298</v>
+        <v>8.0899811543152094</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
@@ -5965,7 +5968,7 @@
     <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C96" s="42">
         <v>6.8562740893626799</v>
@@ -6013,7 +6016,7 @@
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97" s="39">
         <v>6.4999533688117301</v>
@@ -6061,7 +6064,7 @@
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C98" s="39">
         <v>5.9222000351960302</v>
@@ -6109,7 +6112,7 @@
     <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C99" s="42">
         <v>21.077551688809301</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -6194,7 +6197,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -6214,7 +6217,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -6234,7 +6237,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -6254,7 +6257,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -6308,7 +6311,7 @@
     </row>
     <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -6344,7 +6347,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -6363,7 +6366,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -6399,7 +6402,7 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -6418,7 +6421,7 @@
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Source : Organisation internationale du travail (récupéré le 25/10/2020), Division des statistiques des Nations Unies, Comptes nationaux (analyse des principaux agrégats, jeu de données téléchargé en décembre 2020), Indicateurs du développement dans le monde de la Banque mondiale (base de données et données communiquées par les banques centrales, les agences nationales de statistique, et bureaux de pays de la Banque mondiale -01/04/2021).</t>
+    <t>Source : Organisation internationale du travail (récupéré le 14/11/2021), Division des statistiques des Nations Unies, Comptes nationaux (analyse des principaux agrégats, jeu de données téléchargé en décembre 2020), Indicateurs du développement dans le monde de la Banque mondiale (base de données et données publiées par les banques centrales, les agences nationales de statistique, et bureaux de pays de la Banque mondiale -22/04/2022).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
@@ -1893,13 +1893,13 @@
         <v>38</v>
       </c>
       <c r="C13" s="26">
-        <v>4.2467176578698398</v>
+        <v>4.24511870492843</v>
       </c>
       <c r="D13" s="26">
-        <v>1.0251674933422701</v>
+        <v>1.0256180954427401</v>
       </c>
       <c r="E13" s="27">
-        <v>7.8763732885398303</v>
+        <v>7.8760176205545198</v>
       </c>
       <c r="F13" s="26">
         <v>5.0657994036641396</v>
@@ -2393,13 +2393,13 @@
         <v>57</v>
       </c>
       <c r="C23" s="26">
-        <v>9.2753485186298192</v>
+        <v>9.2239408501254196</v>
       </c>
       <c r="D23" s="26">
-        <v>0.93914765663721</v>
+        <v>0.93080563470538003</v>
       </c>
       <c r="E23" s="27">
-        <v>15.1206479490807</v>
+        <v>15.041837465209699</v>
       </c>
       <c r="F23" s="26">
         <v>16.3650575530345</v>
@@ -3143,13 +3143,13 @@
         <v>87</v>
       </c>
       <c r="C38" s="26">
-        <v>0.63298986704244997</v>
+        <v>0.64473634843504002</v>
       </c>
       <c r="D38" s="26">
-        <v>5.1546024426999998E-4</v>
+        <v>5.2466462391999996E-4</v>
       </c>
       <c r="E38" s="27">
-        <v>3.48095440311404</v>
+        <v>3.4898531808666799</v>
       </c>
       <c r="F38" s="26">
         <v>29.314467077315999</v>
@@ -3493,13 +3493,13 @@
         <v>100</v>
       </c>
       <c r="C45" s="26">
-        <v>7.3432445630079597</v>
+        <v>7.3215173912970704</v>
       </c>
       <c r="D45" s="26">
-        <v>0.15701062826626999</v>
+        <v>0.15644886761608001</v>
       </c>
       <c r="E45" s="27">
-        <v>8.5557709138101092</v>
+        <v>8.5311452410706394</v>
       </c>
       <c r="F45" s="26">
         <v>11.739089429526301</v>
@@ -4291,13 +4291,13 @@
         <v>131</v>
       </c>
       <c r="C61" s="26">
-        <v>5.2821499421673304</v>
+        <v>5.2818945746942001</v>
       </c>
       <c r="D61" s="26">
-        <v>7.1123379958299995E-2</v>
+        <v>7.0977671788809996E-2</v>
       </c>
       <c r="E61" s="27">
-        <v>7.48705749510684</v>
+        <v>7.4865237466262897</v>
       </c>
       <c r="F61" s="26">
         <v>22.8993314430931</v>
@@ -4339,13 +4339,13 @@
         <v>132</v>
       </c>
       <c r="C62" s="32">
-        <v>5.2283935393359604</v>
+        <v>5.2216836665081203</v>
       </c>
       <c r="D62" s="32">
-        <v>0.31718473375430001</v>
+        <v>0.31636727112377</v>
       </c>
       <c r="E62" s="33">
-        <v>7.6496865233436502</v>
+        <v>7.6403140161355996</v>
       </c>
       <c r="F62" s="32">
         <v>16.555378377897298</v>
@@ -4387,13 +4387,13 @@
         <v>133</v>
       </c>
       <c r="C63" s="32">
-        <v>1.5387803594409399</v>
+        <v>1.53799932133146</v>
       </c>
       <c r="D63" s="32">
-        <v>0.21336857432403</v>
+        <v>0.21289374191068</v>
       </c>
       <c r="E63" s="33">
-        <v>2.3983651443644902</v>
+        <v>2.3968920203694899</v>
       </c>
       <c r="F63" s="32">
         <v>3.890694689919</v>
@@ -4435,13 +4435,13 @@
         <v>134</v>
       </c>
       <c r="C64" s="36">
-        <v>1.77367826347372</v>
+        <v>1.7736836525341499</v>
       </c>
       <c r="D64" s="36">
-        <v>0.44615441184884003</v>
+        <v>0.44582365183315997</v>
       </c>
       <c r="E64" s="37">
-        <v>2.75320928056817</v>
+        <v>2.75337319723518</v>
       </c>
       <c r="F64" s="36">
         <v>5.5501832025947202</v>
@@ -4483,13 +4483,13 @@
         <v>135</v>
       </c>
       <c r="C65" s="39">
-        <v>0.89580578340021999</v>
+        <v>0.89492303171263998</v>
       </c>
       <c r="D65" s="39">
-        <v>0.30480174557417</v>
+        <v>0.30388181616974003</v>
       </c>
       <c r="E65" s="40">
-        <v>2.15730495607793</v>
+        <v>2.1546116573971399</v>
       </c>
       <c r="F65" s="39">
         <v>9.5952245253599902</v>
@@ -4531,13 +4531,13 @@
         <v>136</v>
       </c>
       <c r="C66" s="42">
-        <v>1.72656827975828</v>
+        <v>1.7256311056939999</v>
       </c>
       <c r="D66" s="42">
-        <v>0.21865224594738</v>
+        <v>0.21816406658472001</v>
       </c>
       <c r="E66" s="43">
-        <v>2.6656285252051899</v>
+        <v>2.6639606758106802</v>
       </c>
       <c r="F66" s="42">
         <v>4.2480123949244604</v>
@@ -4579,13 +4579,13 @@
         <v>137</v>
       </c>
       <c r="C67" s="39">
-        <v>3.8673381647484599</v>
+        <v>3.86105380973162</v>
       </c>
       <c r="D67" s="39">
-        <v>0.16878972860118999</v>
+        <v>0.16784557187966001</v>
       </c>
       <c r="E67" s="40">
-        <v>6.0879646693947196</v>
+        <v>6.0755247762998703</v>
       </c>
       <c r="F67" s="39">
         <v>18.439660893732999</v>
@@ -4627,13 +4627,13 @@
         <v>138</v>
       </c>
       <c r="C68" s="39">
-        <v>5.2882480152262499</v>
+        <v>5.2781053276270002</v>
       </c>
       <c r="D68" s="39">
-        <v>0.12931010619217001</v>
+        <v>0.12880948769287001</v>
       </c>
       <c r="E68" s="40">
-        <v>6.8970506450846898</v>
+        <v>6.8848584335615302</v>
       </c>
       <c r="F68" s="39">
         <v>18.252968098668099</v>
@@ -4675,13 +4675,13 @@
         <v>139</v>
       </c>
       <c r="C69" s="39">
-        <v>9.8139457432700004E-3</v>
+        <v>9.8146757952699993E-3</v>
       </c>
       <c r="D69" s="39">
-        <v>4.6453838239999999E-5</v>
+        <v>4.643947943E-5</v>
       </c>
       <c r="E69" s="40">
-        <v>2.5723156934069298</v>
+        <v>2.57205177967192</v>
       </c>
       <c r="F69" s="39">
         <v>30.8074018731362</v>
@@ -4723,13 +4723,13 @@
         <v>140</v>
       </c>
       <c r="C70" s="39">
-        <v>14.9307699161428</v>
+        <v>14.8686072250135</v>
       </c>
       <c r="D70" s="39">
-        <v>0.52673411262247005</v>
+        <v>0.52435270176505999</v>
       </c>
       <c r="E70" s="40">
-        <v>18.8007995739205</v>
+        <v>18.7344191769131</v>
       </c>
       <c r="F70" s="39">
         <v>14.2607593900831</v>
@@ -4771,13 +4771,13 @@
         <v>141</v>
       </c>
       <c r="C71" s="39">
-        <v>5.2821499421673304</v>
+        <v>5.2818945746942001</v>
       </c>
       <c r="D71" s="39">
-        <v>7.1123379958299995E-2</v>
+        <v>7.0977671788809996E-2</v>
       </c>
       <c r="E71" s="40">
-        <v>7.48705749510684</v>
+        <v>7.4865237466262897</v>
       </c>
       <c r="F71" s="39">
         <v>22.8993314430931</v>
@@ -4819,13 +4819,13 @@
         <v>142</v>
       </c>
       <c r="C72" s="39">
-        <v>0.83848664749317003</v>
+        <v>0.85322440258807997</v>
       </c>
       <c r="D72" s="39">
-        <v>6.8854175559000005E-4</v>
+        <v>7.0003148632999997E-4</v>
       </c>
       <c r="E72" s="40">
-        <v>3.9099364096707099</v>
+        <v>3.9202933658561601</v>
       </c>
       <c r="F72" s="39">
         <v>31.222728750134198</v>
@@ -4867,13 +4867,13 @@
         <v>143</v>
       </c>
       <c r="C73" s="39">
-        <v>3.4186191644144301</v>
+        <v>3.416424340786</v>
       </c>
       <c r="D73" s="39">
-        <v>0.99569577369863005</v>
+        <v>0.99593010995525</v>
       </c>
       <c r="E73" s="40">
-        <v>7.2063346473692</v>
+        <v>7.2048537359315299</v>
       </c>
       <c r="F73" s="39">
         <v>8.7779749738123094</v>
@@ -4915,13 +4915,13 @@
         <v>143</v>
       </c>
       <c r="C74" s="39">
-        <v>11.2045598497245</v>
+        <v>11.125760654154799</v>
       </c>
       <c r="D74" s="39">
-        <v>0.33201233773606997</v>
+        <v>0.3293511332772</v>
       </c>
       <c r="E74" s="40">
-        <v>12.710640314589901</v>
+        <v>12.623167783546901</v>
       </c>
       <c r="F74" s="39">
         <v>12.066826354603</v>
@@ -4963,13 +4963,13 @@
         <v>144</v>
       </c>
       <c r="C75" s="42">
-        <v>20.650971697924302</v>
+        <v>20.646836147698099</v>
       </c>
       <c r="D75" s="42">
         <v>0</v>
       </c>
       <c r="E75" s="43">
-        <v>23.8917771788038</v>
+        <v>23.889632314162199</v>
       </c>
       <c r="F75" s="42">
         <v>11.7014727256544</v>
@@ -5011,13 +5011,13 @@
         <v>145</v>
       </c>
       <c r="C76" s="39">
-        <v>0.90717373318757999</v>
+        <v>0.90729207139557</v>
       </c>
       <c r="D76" s="39">
-        <v>0.17367200618597001</v>
+        <v>0.17370901001059999</v>
       </c>
       <c r="E76" s="40">
-        <v>2.7882569159943</v>
+        <v>2.7886470056186701</v>
       </c>
       <c r="F76" s="39">
         <v>10.0463810068093</v>
@@ -5059,13 +5059,13 @@
         <v>146</v>
       </c>
       <c r="C77" s="39">
-        <v>1.9818695854902499</v>
+        <v>1.9818701590583301</v>
       </c>
       <c r="D77" s="39">
-        <v>0.58862378508306001</v>
+        <v>0.58838826316592996</v>
       </c>
       <c r="E77" s="40">
-        <v>3.2306831322969298</v>
+        <v>3.2304196876906599</v>
       </c>
       <c r="F77" s="39">
         <v>6.2536187055343602</v>
@@ -5107,13 +5107,13 @@
         <v>146</v>
       </c>
       <c r="C78" s="39">
-        <v>4.0130085409470002E-2</v>
+        <v>4.0160332233559998E-2</v>
       </c>
       <c r="D78" s="39">
-        <v>3.0148499006040001E-2</v>
+        <v>3.012799355049E-2</v>
       </c>
       <c r="E78" s="40">
-        <v>0.19057718829473</v>
+        <v>0.19059421440464999</v>
       </c>
       <c r="F78" s="39">
         <v>1.7931513733645701</v>
@@ -5155,13 +5155,13 @@
         <v>147</v>
       </c>
       <c r="C79" s="42">
-        <v>0.36292800948456999</v>
+        <v>0.36314711207219003</v>
       </c>
       <c r="D79" s="42">
-        <v>0.11179985674905001</v>
+        <v>0.11152221306819</v>
       </c>
       <c r="E79" s="43">
-        <v>0.67885541159271001</v>
+        <v>0.67860633949164995</v>
       </c>
       <c r="F79" s="42">
         <v>1.42297068794102</v>
@@ -5203,13 +5203,13 @@
         <v>148</v>
       </c>
       <c r="C80" s="39">
-        <v>13.6002630072404</v>
+        <v>13.598975826458499</v>
       </c>
       <c r="D80" s="39">
-        <v>0.15080703513179</v>
+        <v>0.15081776776983</v>
       </c>
       <c r="E80" s="40">
-        <v>15.607230813598299</v>
+        <v>15.606151388553201</v>
       </c>
       <c r="F80" s="39">
         <v>17.4151523808038</v>
@@ -5251,13 +5251,13 @@
         <v>149</v>
       </c>
       <c r="C81" s="39">
-        <v>15.531686683923599</v>
+        <v>15.5253439794699</v>
       </c>
       <c r="D81" s="39">
-        <v>0.33567721917174997</v>
+        <v>0.33605502046029001</v>
       </c>
       <c r="E81" s="40">
-        <v>18.314083887311501</v>
+        <v>18.309582978425802</v>
       </c>
       <c r="F81" s="39">
         <v>4.4091350074693603</v>
@@ -5299,13 +5299,13 @@
         <v>150</v>
       </c>
       <c r="C82" s="39">
-        <v>1.5532279151147601</v>
+        <v>1.55637400376145</v>
       </c>
       <c r="D82" s="39">
-        <v>0.39022285277404001</v>
+        <v>0.38880000746870003</v>
       </c>
       <c r="E82" s="40">
-        <v>4.1564054418742797</v>
+        <v>4.1550278239486902</v>
       </c>
       <c r="F82" s="39">
         <v>16.098683381376699</v>
@@ -5347,13 +5347,13 @@
         <v>151</v>
       </c>
       <c r="C83" s="42">
-        <v>0.45783803774927001</v>
+        <v>0.45784838059269001</v>
       </c>
       <c r="D83" s="42">
-        <v>0.20392071019373001</v>
+        <v>0.20338319870721</v>
       </c>
       <c r="E83" s="43">
-        <v>1.1689381614510801</v>
+        <v>1.1681102423440199</v>
       </c>
       <c r="F83" s="42">
         <v>3.8591087951685501</v>
@@ -5395,13 +5395,13 @@
         <v>152</v>
       </c>
       <c r="C84" s="39">
-        <v>1.2081941353953001</v>
+        <v>1.2201164985295301</v>
       </c>
       <c r="D84" s="39">
-        <v>0.39136585591348999</v>
+        <v>0.389526773682</v>
       </c>
       <c r="E84" s="40">
-        <v>6.1878323997329998</v>
+        <v>6.1880612012389697</v>
       </c>
       <c r="F84" s="39">
         <v>28.667585526968502</v>
@@ -5491,13 +5491,13 @@
         <v>154</v>
       </c>
       <c r="C86" s="39">
-        <v>6.2104355720217397</v>
+        <v>6.1996659926477697</v>
       </c>
       <c r="D86" s="39">
-        <v>0.11057997925059999</v>
+        <v>0.11022997292483</v>
       </c>
       <c r="E86" s="40">
-        <v>7.8076612384845996</v>
+        <v>7.7952395886384798</v>
       </c>
       <c r="F86" s="39">
         <v>17.670361031065099</v>
@@ -5539,13 +5539,13 @@
         <v>155</v>
       </c>
       <c r="C87" s="39">
-        <v>0.49895320923820002</v>
+        <v>0.49907381428577002</v>
       </c>
       <c r="D87" s="39">
-        <v>0.43726538767860001</v>
+        <v>0.43433652213343998</v>
       </c>
       <c r="E87" s="40">
-        <v>2.1925597333630198</v>
+        <v>2.1858492446400701</v>
       </c>
       <c r="F87" s="39">
         <v>15.299320293453601</v>
@@ -5587,13 +5587,13 @@
         <v>156</v>
       </c>
       <c r="C88" s="39">
-        <v>4.9980592695975199</v>
+        <v>4.9978301898136896</v>
       </c>
       <c r="D88" s="39">
-        <v>1.112099622396</v>
+        <v>1.1120113589761</v>
       </c>
       <c r="E88" s="40">
-        <v>8.4147560071493999</v>
+        <v>8.4143616566254895</v>
       </c>
       <c r="F88" s="39">
         <v>2.3473588428320502</v>
@@ -5635,13 +5635,13 @@
         <v>157</v>
       </c>
       <c r="C89" s="39">
-        <v>2.2046570874736702</v>
+        <v>2.2056835393462699</v>
       </c>
       <c r="D89" s="39">
-        <v>0.27175297257338998</v>
+        <v>0.27170604001456</v>
       </c>
       <c r="E89" s="40">
-        <v>3.4258206307034702</v>
+        <v>3.4272212523652801</v>
       </c>
       <c r="F89" s="39">
         <v>6.7580390768892702</v>
@@ -5683,13 +5683,13 @@
         <v>158</v>
       </c>
       <c r="C90" s="42">
-        <v>1.3799127961489801</v>
+        <v>1.37953764164502</v>
       </c>
       <c r="D90" s="42">
-        <v>0.10326732423024</v>
+        <v>0.10298128054202001</v>
       </c>
       <c r="E90" s="43">
-        <v>1.7252264429878901</v>
+        <v>1.7244346023097801</v>
       </c>
       <c r="F90" s="42">
         <v>1.25283545347737</v>
@@ -5731,13 +5731,13 @@
         <v>159</v>
       </c>
       <c r="C91" s="39">
-        <v>4.1820868309110901</v>
+        <v>4.1777892008159503</v>
       </c>
       <c r="D91" s="39">
-        <v>0.50376486653232</v>
+        <v>0.50230676143959996</v>
       </c>
       <c r="E91" s="40">
-        <v>8.2907276754060106</v>
+        <v>8.2815665605199005</v>
       </c>
       <c r="F91" s="39">
         <v>23.949802403985899</v>
@@ -5779,13 +5779,13 @@
         <v>160</v>
       </c>
       <c r="C92" s="39">
-        <v>0.30677440591209998</v>
+        <v>0.30778174802583003</v>
       </c>
       <c r="D92" s="39">
-        <v>0.14061194775404001</v>
+        <v>0.14060517761255001</v>
       </c>
       <c r="E92" s="40">
-        <v>1.65460813040528</v>
+        <v>1.65738785692054</v>
       </c>
       <c r="F92" s="39">
         <v>17.156271763174999</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="40">
-        <v>0.96979394768336002</v>
+        <v>0.96646767838839998</v>
       </c>
       <c r="F93" s="39">
         <v>9.0837104965968205</v>
@@ -5875,13 +5875,13 @@
         <v>162</v>
       </c>
       <c r="C94" s="39">
-        <v>0.47010243596631002</v>
+        <v>0.47485830524744999</v>
       </c>
       <c r="D94" s="39">
-        <v>9.1109220641020006E-2</v>
+        <v>9.0686117353780002E-2</v>
       </c>
       <c r="E94" s="40">
-        <v>1.30199417013772</v>
+        <v>1.3119703748365401</v>
       </c>
       <c r="F94" s="39">
         <v>2.90325866708636</v>
@@ -5923,13 +5923,13 @@
         <v>163</v>
       </c>
       <c r="C95" s="39">
-        <v>0.68095690557887001</v>
+        <v>0.68471245342209996</v>
       </c>
       <c r="D95" s="39">
-        <v>0.19275199619603001</v>
+        <v>0.19222733364474001</v>
       </c>
       <c r="E95" s="40">
-        <v>5.0038744239894504</v>
+        <v>5.0090450209567798</v>
       </c>
       <c r="F95" s="39">
         <v>25.084643447197902</v>
@@ -5971,13 +5971,13 @@
         <v>164</v>
       </c>
       <c r="C96" s="42">
-        <v>6.8562740893626799</v>
+        <v>6.8454985961850801</v>
       </c>
       <c r="D96" s="42">
-        <v>1.0398483236542599</v>
+        <v>1.0424452023150601</v>
       </c>
       <c r="E96" s="43">
-        <v>10.4700883547237</v>
+        <v>10.461663234768</v>
       </c>
       <c r="F96" s="42">
         <v>12.205650595581799</v>
@@ -6019,13 +6019,13 @@
         <v>165</v>
       </c>
       <c r="C97" s="39">
-        <v>6.4999533688117301</v>
+        <v>6.4939083086180904</v>
       </c>
       <c r="D97" s="39">
-        <v>0.26417319193508998</v>
+        <v>0.26345531582738002</v>
       </c>
       <c r="E97" s="40">
-        <v>9.4396309561409506</v>
+        <v>9.4327010113514103</v>
       </c>
       <c r="F97" s="39">
         <v>22.6681774850416</v>
@@ -6067,13 +6067,13 @@
         <v>166</v>
       </c>
       <c r="C98" s="39">
-        <v>5.9222000351960302</v>
+        <v>5.6982155951968299</v>
       </c>
       <c r="D98" s="39">
-        <v>0.12214934692326999</v>
+        <v>0.11983896057817001</v>
       </c>
       <c r="E98" s="40">
-        <v>6.9427470990715703</v>
+        <v>6.7051665232767697</v>
       </c>
       <c r="F98" s="39">
         <v>12.6057627956995</v>
@@ -6115,13 +6115,13 @@
         <v>167</v>
       </c>
       <c r="C99" s="42">
-        <v>21.077551688809301</v>
+        <v>21.0021688369151</v>
       </c>
       <c r="D99" s="42">
-        <v>0.30164784800955002</v>
+        <v>0.30032705968755002</v>
       </c>
       <c r="E99" s="43">
-        <v>22.980343903421598</v>
+        <v>22.9066097067589</v>
       </c>
       <c r="F99" s="42">
         <v>11.2223996667572</v>

--- a/DDAf_2022_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
     <t>Source : Organisation internationale du travail (récupéré le 14/11/2021), Division des statistiques des Nations Unies, Comptes nationaux (analyse des principaux agrégats, jeu de données téléchargé en décembre 2020), Indicateurs du développement dans le monde de la Banque mondiale (base de données et données publiées par les banques centrales, les agences nationales de statistique, et bureaux de pays de la Banque mondiale -22/04/2022).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -5656,7 +5656,7 @@
         <v>13.738971559671601</v>
       </c>
       <c r="J89" s="39">
-        <v>5.9570933688534602</v>
+        <v>5.95709336885347</v>
       </c>
       <c r="K89" s="40">
         <v>37.459564058028398</v>
@@ -6457,7 +6457,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
